--- a/data/trans_bre/EXP_TABACO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/EXP_TABACO-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,69 +470,69 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -608,407 +544,407 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-13,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-8,59%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-29,95%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-56,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>-2.729690710981522</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>-8.203120663692562</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>-13.20208323385776</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.5655958563763843</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1843727210742006</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2994861093340258</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.5753498792350735</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.05737351825064961</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 3,74</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,29; 4,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,4; -8,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,7; 6,82</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-38,74; 39,13</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-58,06; 22,81</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-68,28; -40,16</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-47,67; 102,19</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-8.836880402067832</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-20.28611952767107</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-18.92155743677395</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>-5.255421564893556</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4570065199730995</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5805972939635813</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.7150195373912673</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4191185175529673</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.611173161142077</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>4.162996690344379</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>-8.027228931030377</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.453609405182215</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3773320620811785</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2280517361136951</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.4048242306592162</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.183167313165664</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-7,86%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,48%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-9,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 6,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 2,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 3,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 2,08</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 52,88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-23,37; 7,93</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,66; 17,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-27,63; 14,87</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.851216546268959</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-2.329803706862449</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.1640202911991739</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>-1.418390774259731</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1979918894157969</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.07864354293220611</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.007532018790477451</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.08748467500721524</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-0.8370166114809631</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-7.434026579074528</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-3.393148259089955</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>-5.515422154249875</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.05728573269968251</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2336575626166865</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.1424886711334846</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2949441617021549</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>6.53737414503407</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.191973404504939</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>4.17520407119729</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2.285524789037799</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.523030593474149</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.07934508977890767</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2069014163828096</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.1600903225145053</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-14,11%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 4,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,43; 2,12</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 3,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 5,61</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-31,08; 58,98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-34,64; 11,15</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-28,42; 38,06</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-28,44; 68,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>0.6955636534318479</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-3.011466863936668</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.1018579705516665</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>2.011602605459586</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.06218553534897442</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1411318119441692</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.008892948799990979</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1921617236331178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-4.074847316239482</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-8.430242075337341</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-3.933052431492154</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>-3.239152114333649</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3049224702299582</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3464179116323157</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2949377746329865</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2435203187116346</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>5.669647983111802</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.124651812076291</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>4.064361179260744</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>6.674694815430902</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.6371413344891506</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.1114541084359975</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4159268695606295</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.8608624307337709</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-14,07%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-13,36%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-6,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 4,02</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; -0,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; -0,23</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 1,88</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 34,74</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,46; -1,03</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; -1,33</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,21; 15,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.466616435227852</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>-3.730349899872556</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>-2.267218267066673</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>-0.5076313630861834</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1080287729838164</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1406799017611556</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1191560546920554</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.0363109278315103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-1.136000934248522</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-7.19317476367215</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-4.710485901043395</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>-3.046918720691517</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.08176439833477077</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2546387509145514</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2324925391215514</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2015332329268724</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>4.061141934167348</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-0.2506700516641325</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>0.1984903734906075</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>2.255430437499963</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.3333381312550482</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.01028959355294448</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.01292526040774986</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.182656230733496</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1016,13 +952,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
